--- a/data.xlsx
+++ b/data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DF963-960E-4E6B-B6E6-D73909D77548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FC88C-5722-43DB-A054-AAE4D67CE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2620" windowWidth="25050" windowHeight="12430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5720" yWindow="90" windowWidth="25050" windowHeight="12430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="文件级频谱" sheetId="5" r:id="rId1"/>
-    <sheet name="函数级频谱" sheetId="6" r:id="rId2"/>
+    <sheet name="File Level" sheetId="5" r:id="rId1"/>
+    <sheet name="Method Level" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,97 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
-    <t>spectrum</t>
-  </si>
-  <si>
-    <t>top1</t>
-  </si>
-  <si>
-    <t>top3</t>
-  </si>
-  <si>
-    <t>top5</t>
-  </si>
-  <si>
-    <t>mfr</t>
-  </si>
-  <si>
-    <t>mrr</t>
-  </si>
-  <si>
-    <t>ochiai</t>
-  </si>
-  <si>
-    <t>jaccard</t>
-  </si>
-  <si>
-    <t>tarantula</t>
-  </si>
-  <si>
-    <t>ample</t>
-  </si>
-  <si>
-    <t>russellrao</t>
-  </si>
-  <si>
-    <t>hamann</t>
-  </si>
-  <si>
-    <t>srensendice</t>
-  </si>
-  <si>
-    <t>dice</t>
-  </si>
-  <si>
-    <t>kulczynski1</t>
-  </si>
-  <si>
-    <t>kulczynski2</t>
-  </si>
-  <si>
-    <t>simplematching</t>
-  </si>
-  <si>
-    <t>sokal</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>rogerstanimoto</t>
-  </si>
-  <si>
-    <t>goodman</t>
-  </si>
-  <si>
-    <t>hamming</t>
-  </si>
-  <si>
-    <t>euclid</t>
-  </si>
-  <si>
-    <t>overlap</t>
-  </si>
-  <si>
-    <t>anderberg</t>
-  </si>
-  <si>
-    <t>ochiai2</t>
-  </si>
-  <si>
-    <t>zoltar</t>
-  </si>
-  <si>
-    <t>wong1</t>
-  </si>
-  <si>
-    <t>wong2</t>
-  </si>
-  <si>
-    <t>wong3</t>
   </si>
   <si>
     <t>ER5c</t>
@@ -147,6 +60,122 @@
   </si>
   <si>
     <t>ER1b</t>
+  </si>
+  <si>
+    <t>Top-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ochiai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaccard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tarantula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ample</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RussellRao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamann</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SφrensenDice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kulczynski1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kulczynski2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleMatching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sokal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RogersTanimoto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goodman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euclid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anderberg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ochiai2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wong1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wong2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wong3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spectrum Formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -580,22 +609,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -620,7 +649,7 @@
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -660,7 +689,7 @@
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
@@ -700,7 +729,7 @@
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
@@ -740,7 +769,7 @@
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>7.333333333333333</v>
@@ -780,7 +809,7 @@
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>25.866666666666667</v>
@@ -820,7 +849,7 @@
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>24.444444444444443</v>
@@ -860,7 +889,7 @@
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <v>21.523809523809522</v>
@@ -900,7 +929,7 @@
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>19.333333333333332</v>
@@ -940,7 +969,7 @@
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>17.62962962962963</v>
@@ -980,7 +1009,7 @@
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>16.266666666666666</v>
@@ -1020,7 +1049,7 @@
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>15.151515151515152</v>
@@ -1060,7 +1089,7 @@
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>14.222222222222221</v>
@@ -1100,7 +1129,7 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3">
         <v>13.435897435897438</v>
@@ -1140,7 +1169,7 @@
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3">
         <v>12.761904761904763</v>
@@ -1180,7 +1209,7 @@
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>12.177777777777777</v>
@@ -1220,7 +1249,7 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>17.666666666666668</v>
@@ -1260,7 +1289,7 @@
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <v>16.862745098039216</v>
@@ -1300,7 +1329,7 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3">
         <v>16.148148148148149</v>
@@ -1340,7 +1369,7 @@
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>16.210526315789473</v>
@@ -1380,7 +1409,7 @@
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
         <v>15.6</v>
@@ -1420,7 +1449,7 @@
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>15.047619047619049</v>
@@ -1460,7 +1489,7 @@
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3">
         <v>14.545454545454545</v>
@@ -1500,7 +1529,7 @@
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <v>18.260869565217391</v>
@@ -1540,7 +1569,7 @@
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3">
         <v>18.222222222222221</v>
@@ -1580,7 +1609,7 @@
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
         <v>18.186666666666667</v>
@@ -1620,7 +1649,7 @@
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3">
         <v>21.333333333333336</v>
@@ -1660,7 +1689,7 @@
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3">
         <v>20.938271604938272</v>
@@ -1700,7 +1729,7 @@
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3">
         <v>20.809523809523807</v>
@@ -1740,7 +1769,7 @@
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3">
         <v>20.229885057471265</v>
@@ -1780,7 +1809,7 @@
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B31" s="3">
         <v>19.911111111111111</v>
@@ -1820,7 +1849,7 @@
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B32" s="3">
         <v>19.397849462365592</v>
@@ -1860,7 +1889,7 @@
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3">
         <v>18.916666666666668</v>
@@ -1900,7 +1929,7 @@
     </row>
     <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B34" s="3">
         <v>21.373737373737374</v>
@@ -1940,7 +1969,7 @@
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3">
         <v>20.862745098039216</v>
@@ -6609,7 +6638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A1:A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6618,22 +6649,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -6658,7 +6689,7 @@
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>2.666666666666667</v>
@@ -6698,7 +6729,7 @@
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>2.666666666666667</v>
@@ -6738,7 +6769,7 @@
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>2.666666666666667</v>
@@ -6778,7 +6809,7 @@
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>2.666666666666667</v>
@@ -6818,7 +6849,7 @@
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>22.133333333333333</v>
@@ -6858,7 +6889,7 @@
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>18.888888888888889</v>
@@ -6898,7 +6929,7 @@
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <v>16.571428571428569</v>
@@ -6938,7 +6969,7 @@
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>14.833333333333334</v>
@@ -6978,7 +7009,7 @@
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>13.481481481481481</v>
@@ -7018,7 +7049,7 @@
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <v>12.4</v>
@@ -7058,7 +7089,7 @@
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <v>11.515151515151516</v>
@@ -7098,7 +7129,7 @@
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>10.777777777777779</v>
@@ -7138,7 +7169,7 @@
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3">
         <v>10.153846153846153</v>
@@ -7178,7 +7209,7 @@
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3">
         <v>9.6190476190476186</v>
@@ -7218,7 +7249,7 @@
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>9.155555555555555</v>
@@ -7258,7 +7289,7 @@
     </row>
     <row r="17" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>8.75</v>
@@ -7298,7 +7329,7 @@
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <v>8.3921568627450984</v>
@@ -7338,7 +7369,7 @@
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3">
         <v>8.0740740740740744</v>
@@ -7378,7 +7409,7 @@
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>8.4912280701754383</v>
@@ -7418,7 +7449,7 @@
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
         <v>8.2000000000000011</v>
@@ -7458,7 +7489,7 @@
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>7.9365079365079358</v>
@@ -7498,7 +7529,7 @@
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3">
         <v>7.6969696969696964</v>
@@ -7538,7 +7569,7 @@
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <v>11.710144927536231</v>
@@ -7578,7 +7609,7 @@
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3">
         <v>11.333333333333332</v>
@@ -7618,7 +7649,7 @@
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
         <v>10.986666666666666</v>
@@ -7658,7 +7689,7 @@
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3">
         <v>14.410256410256411</v>
@@ -7698,7 +7729,7 @@
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3">
         <v>13.876543209876543</v>
@@ -7738,7 +7769,7 @@
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3">
         <v>13.952380952380953</v>
@@ -7778,7 +7809,7 @@
     </row>
     <row r="30" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3">
         <v>13.563218390804598</v>
@@ -7818,7 +7849,7 @@
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B31" s="3">
         <v>13.111111111111112</v>
@@ -7858,7 +7889,7 @@
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B32" s="3">
         <v>12.774193548387098</v>
@@ -7898,7 +7929,7 @@
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3">
         <v>12.458333333333334</v>
@@ -7938,7 +7969,7 @@
     </row>
     <row r="34" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B34" s="3">
         <v>15.111111111111111</v>
@@ -7978,7 +8009,7 @@
     </row>
     <row r="35" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3">
         <v>14.745098039215687</v>
@@ -12639,6 +12670,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>